--- a/DLL Library Changes.xlsx
+++ b/DLL Library Changes.xlsx
@@ -24,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,20 +35,6 @@
             <charset val="1"/>
           </rPr>
           <t>Technically 79.31% covered due to STA failing tests. Uncovered lines would be reached if not failing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Remove dependency?</t>
         </r>
       </text>
     </comment>
@@ -66,35 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Remove dependency?</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Remove dependency?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +136,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0">
+    <comment ref="H22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Remove dependency?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Remove dependency?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="162">
   <si>
     <t>Library Name</t>
   </si>
@@ -674,6 +660,15 @@
   </si>
   <si>
     <t>MPT.Units.Core</t>
+  </si>
+  <si>
+    <t>MPT.Batch</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>check about MPT.FileSystem for delete operations. Add static methods.</t>
   </si>
 </sst>
 </file>
@@ -683,7 +678,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +707,22 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -765,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -790,6 +801,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1938,10 +1953,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1949,7 +1964,7 @@
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -1976,29 +1991,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="14">
-        <v>49</v>
+    <row r="2" spans="1:6" s="4" customFormat="1">
+      <c r="A2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="22">
+        <v>40</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="F2" s="23" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B3" s="14">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -2012,10 +2030,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="14">
-        <v>374</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -2023,19 +2041,16 @@
       <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B5" s="14">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -2043,55 +2058,58 @@
       <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>64</v>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="20">
-        <v>108</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.22220000000000001</v>
+        <v>59</v>
+      </c>
+      <c r="B6" s="14">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>155</v>
+      <c r="E6" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="20">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.22220000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>64</v>
+      <c r="E7" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" s="20">
-        <v>167</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2100,45 +2118,48 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="15">
-        <v>57</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="B9" s="20">
+        <v>167</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="16">
-        <v>29</v>
-      </c>
-      <c r="C10" s="9">
+        <v>58</v>
+      </c>
+      <c r="B10" s="15">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="14">
-        <v>373</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="16">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>64</v>
@@ -2146,115 +2167,108 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="15">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="14">
+        <v>373</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="14">
-        <v>254</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.48820000000000002</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B13" s="15">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="15">
-        <v>47</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B14" s="14">
+        <v>254</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.48820000000000002</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B15" s="15">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="25" t="s">
+        <v>153</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" s="15">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="15">
+        <v>97</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="14">
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="14">
         <v>1620</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <v>0.61670000000000003</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="14">
-        <v>231</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2264,19 +2278,13 @@
       <c r="G18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="14">
-        <v>1233</v>
+        <v>196</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -2288,25 +2296,19 @@
       <c r="F19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" s="14">
-        <v>431</v>
+        <v>1233</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -2328,36 +2330,33 @@
         <v>43</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" s="14">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" t="s">
         <v>46</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -2369,51 +2368,48 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="B22" s="14">
-        <v>2163</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.3851</v>
+        <v>379</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
       </c>
       <c r="D22" s="3"/>
+      <c r="E22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="B23" s="14">
-        <v>700</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
+        <v>2163</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.3851</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J23" s="5" t="s">
         <v>57</v>
       </c>
@@ -2423,16 +2419,13 @@
       <c r="L23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="7" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="14">
-        <v>1314</v>
+        <v>700</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -2447,78 +2440,103 @@
       <c r="G24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="F28" t="s">
+      <c r="M24" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1314</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="F29" t="s">
         <v>145</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>145</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>146</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="H29" s="2">
-        <f>(H30/I30)</f>
+    <row r="30" spans="1:13">
+      <c r="H30" s="2">
+        <f>(H31/I31)</f>
         <v>0.687037037037037</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="G30">
-        <f>SUM(F31:F34)</f>
+    <row r="31" spans="1:13">
+      <c r="G31">
+        <f>SUM(F32:F35)</f>
         <v>507</v>
       </c>
-      <c r="H30">
-        <f>I30-G30</f>
+      <c r="H31">
+        <f>I31-G31</f>
         <v>1113</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>1620</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="E31" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31">
-        <v>182</v>
-      </c>
-      <c r="G31" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="E32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F32">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H32" t="s">
         <v>151</v>
@@ -2526,13 +2544,13 @@
     </row>
     <row r="33" spans="5:8">
       <c r="E33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H33" t="s">
         <v>151</v>
@@ -2540,9 +2558,23 @@
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" t="s">
         <v>100</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>2</v>
       </c>
     </row>
